--- a/products.xlsx
+++ b/products.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,7 +445,7 @@
         <v>test12323</v>
       </c>
       <c r="C2" t="str">
-        <v>Tile Spacer</v>
+        <v>Tile Adhesive/Putty</v>
       </c>
       <c r="D2" t="str">
         <v>dssds</v>
@@ -480,7 +480,7 @@
         <v>test12323</v>
       </c>
       <c r="C3" t="str">
-        <v>Tile Spacer</v>
+        <v>Tile Adhesive/Putty</v>
       </c>
       <c r="D3" t="str">
         <v>sasas</v>
@@ -492,7 +492,7 @@
         <v>images/683ec80820814_1748944904.png</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="str">
         <v>&lt;strong&gt;Specifications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;2121: 21212&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Key Features:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;2121&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Applications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;21212&lt;/li&gt;&lt;/ul&gt;</v>
@@ -505,11 +505,81 @@
       </c>
       <c r="K3" t="str">
         <v>["21212"]</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>ashdhgdhgs</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Tile Spacer</v>
+      </c>
+      <c r="D4" t="str">
+        <v>djbjsabjdks</v>
+      </c>
+      <c r="E4">
+        <v>323232</v>
+      </c>
+      <c r="F4" t="str">
+        <v>images/683ef82cf397f_1748957228.png</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
+        <v>&lt;strong&gt;Specifications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;wqwq: wqwq&lt;/li&gt;&lt;li&gt;ssas: sasa&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Key Features:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;wqq&lt;/li&gt;&lt;li&gt;sasasa&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Applications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;wwqwq&lt;/li&gt;&lt;li&gt;sasas&lt;/li&gt;&lt;/ul&gt;</v>
+      </c>
+      <c r="I4" t="str">
+        <v>[{"key":"wqwq","value":"wqwq"},{"key":"ssas","value":"sasa"}]</v>
+      </c>
+      <c r="J4" t="str">
+        <v>["wqq","sasasa"]</v>
+      </c>
+      <c r="K4" t="str">
+        <v>["wwqwq","sasas"]</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>asaa</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Tile Adhesive/Putty</v>
+      </c>
+      <c r="D5" t="str">
+        <v>sasa</v>
+      </c>
+      <c r="E5">
+        <v>12121</v>
+      </c>
+      <c r="F5" t="str">
+        <v>images/683f069fc2299_1748960927.png</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <v>&lt;strong&gt;Specifications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;ssasa: sasas&lt;/li&gt;&lt;li&gt;sasasa: sasas&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Key Features:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;sasaa&lt;/li&gt;&lt;li&gt;sasa&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Applications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;sasasa&lt;/li&gt;&lt;li&gt;sasa&lt;/li&gt;&lt;/ul&gt;</v>
+      </c>
+      <c r="I5" t="str">
+        <v>[{"key":"ssasa","value":"sasas"},{"key":"sasasa","value":"sasas"}]</v>
+      </c>
+      <c r="J5" t="str">
+        <v>["sasaa","sasa"]</v>
+      </c>
+      <c r="K5" t="str">
+        <v>["sasasa","sasa"]</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/products.xlsx
+++ b/products.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -480,7 +480,7 @@
         <v>test12323</v>
       </c>
       <c r="C3" t="str">
-        <v>Tile Adhesive/Putty</v>
+        <v>Tile Spacer</v>
       </c>
       <c r="D3" t="str">
         <v>sasas</v>
@@ -489,7 +489,7 @@
         <v>212</v>
       </c>
       <c r="F3" t="str">
-        <v>images/683ec80820814_1748944904.png</v>
+        <v>images/683ff126d3d64_1749020966.gif</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>ashdhgdhgs</v>
       </c>
       <c r="C4" t="str">
-        <v>Tile Spacer</v>
+        <v>Notched Trowel</v>
       </c>
       <c r="D4" t="str">
         <v>djbjsabjdks</v>
@@ -524,10 +524,10 @@
         <v>323232</v>
       </c>
       <c r="F4" t="str">
-        <v>images/683ef82cf397f_1748957228.png</v>
+        <v>images/683ff12d17ae4_1749020973.gif</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="str">
         <v>&lt;strong&gt;Specifications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;wqwq: wqwq&lt;/li&gt;&lt;li&gt;ssas: sasa&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Key Features:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;wqq&lt;/li&gt;&lt;li&gt;sasasa&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Applications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;wwqwq&lt;/li&gt;&lt;li&gt;sasas&lt;/li&gt;&lt;/ul&gt;</v>
@@ -550,7 +550,7 @@
         <v>asaa</v>
       </c>
       <c r="C5" t="str">
-        <v>Tile Adhesive/Putty</v>
+        <v>FRP Manhole Cover</v>
       </c>
       <c r="D5" t="str">
         <v>sasa</v>
@@ -559,7 +559,7 @@
         <v>12121</v>
       </c>
       <c r="F5" t="str">
-        <v>images/683f069fc2299_1748960927.png</v>
+        <v>images/683ff1350bb2b_1749020981.gif</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -575,11 +575,46 @@
       </c>
       <c r="K5" t="str">
         <v>["sasasa","sasa"]</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>ssasa</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Waterproofing</v>
+      </c>
+      <c r="D6" t="str">
+        <v>sasa</v>
+      </c>
+      <c r="E6">
+        <v>221</v>
+      </c>
+      <c r="F6" t="str">
+        <v>images/683ff13fa9e97_1749020991.gif</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <v>&lt;strong&gt;Specifications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;dsdsdsdds: dsds&lt;/li&gt;&lt;li&gt;sdsdsdsds: dsdss&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Key Features:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;dsds&lt;/li&gt;&lt;li&gt;sdsd&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Applications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;dsdsd&lt;/li&gt;&lt;li&gt;dsds&lt;/li&gt;&lt;/ul&gt;</v>
+      </c>
+      <c r="I6" t="str">
+        <v>[{"key":"dsdsdsdds","value":"dsds"},{"key":"sdsdsdsds","value":"dsdss"}]</v>
+      </c>
+      <c r="J6" t="str">
+        <v>["dsds","sdsd"]</v>
+      </c>
+      <c r="K6" t="str">
+        <v>["dsdsd","dsds"]</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/products.xlsx
+++ b/products.xlsx
@@ -397,224 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Product Name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Category</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Description</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Price</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Image</v>
-      </c>
-      <c r="G1" t="str">
-        <v>HotProduct</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Product Details</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Specifications</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Features</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Applications</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>test12323</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Tile Adhesive/Putty</v>
-      </c>
-      <c r="D2" t="str">
-        <v>dssds</v>
-      </c>
-      <c r="E2">
-        <v>12121</v>
-      </c>
-      <c r="F2" t="str">
-        <v>images/683ec2285172d_1748943400.png</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="str">
-        <v>&lt;strong&gt;Specifications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;2121: 121&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Key Features:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;2121&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Applications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;212121&lt;/li&gt;&lt;/ul&gt;</v>
-      </c>
-      <c r="I2" t="str">
-        <v>[{"key":"2121","value":"121"}]</v>
-      </c>
-      <c r="J2" t="str">
-        <v>["2121"]</v>
-      </c>
-      <c r="K2" t="str">
-        <v>["212121"]</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>test12323</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Tile Spacer</v>
-      </c>
-      <c r="D3" t="str">
-        <v>sasas</v>
-      </c>
-      <c r="E3">
-        <v>212</v>
-      </c>
-      <c r="F3" t="str">
-        <v>images/683ff126d3d64_1749020966.gif</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="str">
-        <v>&lt;strong&gt;Specifications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;2121: 21212&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Key Features:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;2121&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Applications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;21212&lt;/li&gt;&lt;/ul&gt;</v>
-      </c>
-      <c r="I3" t="str">
-        <v>[{"key":"2121","value":"21212"}]</v>
-      </c>
-      <c r="J3" t="str">
-        <v>["2121"]</v>
-      </c>
-      <c r="K3" t="str">
-        <v>["21212"]</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>ashdhgdhgs</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Notched Trowel</v>
-      </c>
-      <c r="D4" t="str">
-        <v>djbjsabjdks</v>
-      </c>
-      <c r="E4">
-        <v>323232</v>
-      </c>
-      <c r="F4" t="str">
-        <v>images/683ff12d17ae4_1749020973.gif</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="str">
-        <v>&lt;strong&gt;Specifications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;wqwq: wqwq&lt;/li&gt;&lt;li&gt;ssas: sasa&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Key Features:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;wqq&lt;/li&gt;&lt;li&gt;sasasa&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Applications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;wwqwq&lt;/li&gt;&lt;li&gt;sasas&lt;/li&gt;&lt;/ul&gt;</v>
-      </c>
-      <c r="I4" t="str">
-        <v>[{"key":"wqwq","value":"wqwq"},{"key":"ssas","value":"sasa"}]</v>
-      </c>
-      <c r="J4" t="str">
-        <v>["wqq","sasasa"]</v>
-      </c>
-      <c r="K4" t="str">
-        <v>["wwqwq","sasas"]</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>asaa</v>
-      </c>
-      <c r="C5" t="str">
-        <v>FRP Manhole Cover</v>
-      </c>
-      <c r="D5" t="str">
-        <v>sasa</v>
-      </c>
-      <c r="E5">
-        <v>12121</v>
-      </c>
-      <c r="F5" t="str">
-        <v>images/683ff1350bb2b_1749020981.gif</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="str">
-        <v>&lt;strong&gt;Specifications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;ssasa: sasas&lt;/li&gt;&lt;li&gt;sasasa: sasas&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Key Features:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;sasaa&lt;/li&gt;&lt;li&gt;sasa&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Applications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;sasasa&lt;/li&gt;&lt;li&gt;sasa&lt;/li&gt;&lt;/ul&gt;</v>
-      </c>
-      <c r="I5" t="str">
-        <v>[{"key":"ssasa","value":"sasas"},{"key":"sasasa","value":"sasas"}]</v>
-      </c>
-      <c r="J5" t="str">
-        <v>["sasaa","sasa"]</v>
-      </c>
-      <c r="K5" t="str">
-        <v>["sasasa","sasa"]</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>ssasa</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Waterproofing</v>
-      </c>
-      <c r="D6" t="str">
-        <v>sasa</v>
-      </c>
-      <c r="E6">
-        <v>221</v>
-      </c>
-      <c r="F6" t="str">
-        <v>images/683ff13fa9e97_1749020991.gif</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="str">
-        <v>&lt;strong&gt;Specifications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;dsdsdsdds: dsds&lt;/li&gt;&lt;li&gt;sdsdsdsds: dsdss&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Key Features:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;dsds&lt;/li&gt;&lt;li&gt;sdsd&lt;/li&gt;&lt;/ul&gt;&lt;strong&gt;Applications:&lt;/strong&gt;&lt;ul&gt;&lt;li&gt;dsdsd&lt;/li&gt;&lt;li&gt;dsds&lt;/li&gt;&lt;/ul&gt;</v>
-      </c>
-      <c r="I6" t="str">
-        <v>[{"key":"dsdsdsdds","value":"dsds"},{"key":"sdsdsdsds","value":"dsdss"}]</v>
-      </c>
-      <c r="J6" t="str">
-        <v>["dsds","sdsd"]</v>
-      </c>
-      <c r="K6" t="str">
-        <v>["dsdsd","dsds"]</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>